--- a/ドキュメント/成果物_基本・詳細設計_塩谷.xlsx
+++ b/ドキュメント/成果物_基本・詳細設計_塩谷.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER122\Documents\project\TMS60\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3473B9F9-17DC-4E83-B0E2-C123575A373A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90270F82-5728-4F24-A767-72EBBDA3D062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="105">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -142,16 +142,10 @@
     <t>テスト対象</t>
   </si>
   <si>
-    <t>ログイン画面</t>
-  </si>
-  <si>
     <t>重要度</t>
   </si>
   <si>
     <t>重要度は、次のいずれかを持つ</t>
-  </si>
-  <si>
-    <t>◎：仕様　⇒100%解決する必要がある</t>
   </si>
   <si>
     <t>○：重要　⇒別途テストパス率の指針に従う</t>
@@ -181,52 +175,14 @@
     <t>予測結果</t>
   </si>
   <si>
-    <t>テスト日</t>
-  </si>
-  <si>
     <t>対応者</t>
   </si>
   <si>
     <t>結果</t>
   </si>
   <si>
-    <t>◎</t>
-  </si>
-  <si>
     <t xml:space="preserve">正常系
 </t>
-  </si>
-  <si>
-    <t>URLアクセス</t>
-  </si>
-  <si>
-    <t>なし</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/ans1101/login.html　へアクセスする</t>
-  </si>
-  <si>
-    <t>ログイン画面へ遷移する</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>異常系</t>
-  </si>
-  <si>
-    <t>ユーザIDがDBに登録されていないときのログインボタン動作</t>
-  </si>
-  <si>
-    <t>・ユーザID：999999
-・パスワード：root</t>
-  </si>
-  <si>
-    <t>ログインするボタンを押下する</t>
-  </si>
-  <si>
-    <t>エラー画面へ遷移する
-エラーの原因がユーザ名が未入力である旨通知する</t>
   </si>
   <si>
     <t>○○○○システム</t>
@@ -312,60 +268,6 @@
       <t>イチラン</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>1.メニュー画面で、『一覧表示』ボタンをクリックする。
-2.タスク一覧表示画面に遷移する。
-3.登録項目である「タスク名」、「カテゴリ情報」、「期限」、「担当者情報」、「ステータス情報」、「メモ」が表形式で表示される。『編集する』ボタンが表示される。</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>イチランヒョウジ</t>
-    </rPh>
-    <rPh sb="33" eb="37">
-      <t>イチランヒョウジ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="48" eb="52">
-      <t>トウロクコウモク</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="77" eb="80">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="99" eb="102">
-      <t>ヒョウケイシキ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="8"/>
@@ -431,6 +333,508 @@
   </si>
   <si>
     <t>GET</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>60期</t>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク一覧表示画面</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>◎：仕様　⇒100%解決する必要がある</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク編集ボタンからタスク編集画面へ遷移するか</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク編集ボタンを押下する</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク編集画面に遷移する</t>
+    <rPh sb="3" eb="7">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テスト日</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク削除ボタンからタスク削除画面へ遷移するか</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク削除ボタンを押下する</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク削除画面に遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント追加ボタンからコメント追加画面へ遷移するか</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント追加ボタンを押下する</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント追加画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正常系
+</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク削除後、タスク一覧に反映されているか</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク削除後、メニュー画面からタスク一覧表示ボタンを押下する</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>登録済みのタスクがすべて一覧で表示される。メニュー画面へ戻るボタンが表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>削除反映後のタスク一覧が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク編集後、タスク一覧に反映されているか</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク編集後、メニュー画面からタスク一覧表示ボタンを押下する</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>編集反映後のタスク一覧が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>登録されているタスクが1件以上の時、タスク一覧画面が正しく表示されているか</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスクが表示されず、一覧が項目のみの表示になっている</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>登録されているタスクが0件の時、タスク一覧が項目のみの表示になっているか</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>新規タスク登録後、タスク一覧に反映されているか</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>トウロクゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>新規タスク登録後、メニュー画面からタスク一覧表示ボタンを押下する</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>新規タスク登録後のタスク一覧が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>重要度</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1.メニュー画面で、『一覧表示』ボタンをクリックする。
+2.タスク一覧表示画面に遷移する。
+3.登録項目である「タスク名」、「カテゴリ情報」、「期限」、「担当者情報」、「ステータス情報」、「メモ」が表形式で表示される。タスクの編集ボタン、削除ボタン、コメント追加ボタンが表示される。タスク一覧の下にはメニュー画面に戻るボタンが表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>トウロクコウモク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ヒョウケイシキ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1189,7 +1593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1334,23 +1738,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1358,17 +1795,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1385,26 +1816,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1415,46 +1837,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1464,9 +1874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1484,8 +1891,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1493,29 +1912,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1576,8 +2004,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1017802"/>
-          <a:ext cx="8852647" cy="4493833"/>
+          <a:off x="0" y="1021876"/>
+          <a:ext cx="8858250" cy="4397565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1652,56 +2080,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>261935</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1083467</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>726281</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="図 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863B8BC6-17F6-68DD-1FB2-5D302C4C386D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1542883"/>
-          <a:ext cx="8818424" cy="5259691"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1996,50 +2374,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>79723</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>343696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>842754</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180646</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="table">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5176DEA-9826-9F56-5595-80EC85A727AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="79723" y="3398265"/>
-          <a:ext cx="8497988" cy="1347812"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2051,7 +2385,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>509095</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>725408</xdr:rowOff>
+      <xdr:rowOff>688731</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2066,8 +2400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2331984"/>
-          <a:ext cx="3777155" cy="692562"/>
+          <a:off x="0" y="2337896"/>
+          <a:ext cx="3785695" cy="655885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2175,12 +2509,6 @@
         </a:lstStyle>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="3600" b="1">
-              <a:ln w="0"/>
-            </a:rPr>
-            <a:t>タスク一覧表示</a:t>
-          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="3600" b="1" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
@@ -2192,1398 +2520,48 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>82960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>442548</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>309924</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101915</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>924914</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>195261</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="四角形: 角を丸くする 108">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249A255F-3DB1-6A60-8777-CB0A33970D58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610719C2-47F2-4094-BEA1-24BB59970BF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82960" y="5007979"/>
-          <a:ext cx="2378300" cy="414798"/>
+          <a:off x="190500" y="1809750"/>
+          <a:ext cx="8506814" cy="4500561"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>メニュー画面に戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>624052</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>624051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>197070</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114957</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="110" name="グループ化 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB18CF5-53E8-95CA-654E-72A26D62B99E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7224877" y="3691101"/>
-          <a:ext cx="687443" cy="1014906"/>
-          <a:chOff x="10160389" y="4244887"/>
-          <a:chExt cx="708943" cy="1616684"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="111" name="四角形: 角を丸くする 110">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEFC0248-A19C-5D49-7538-695C201D88BD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10160389" y="4244887"/>
-            <a:ext cx="708943" cy="376881"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-              <a:t>編集</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="四角形: 角を丸くする 111">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2044CEB4-F36A-CC10-AFF2-77011FDCE15A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10160389" y="5043112"/>
-            <a:ext cx="708943" cy="376881"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-              <a:t>編集</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="四角形: 角を丸くする 112">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F795290-2235-BA63-3512-51C06A495F95}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10160389" y="4649564"/>
-            <a:ext cx="708943" cy="376881"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-              <a:t>編集</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="四角形: 角を丸くする 113">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5735E621-375A-C44D-DEE5-5F05B0190D7B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10160389" y="5484690"/>
-            <a:ext cx="708943" cy="376881"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-              <a:t>編集</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>443406</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>673320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>591206</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>49268</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="115" name="グループ化 114">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D5280E-029B-C18D-47B4-36CF78F69F74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8158656" y="3740370"/>
-          <a:ext cx="147800" cy="899948"/>
-          <a:chOff x="13193244" y="2274263"/>
-          <a:chExt cx="258085" cy="1523136"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="正方形/長方形 115">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D9378AA-1D21-9181-D012-CFF5E3BFEDCD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13193244" y="2274263"/>
-            <a:ext cx="258085" cy="283333"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="117" name="正方形/長方形 116">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3503A8-3491-E61B-4445-A46F74BFB0B1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13193244" y="2693168"/>
-            <a:ext cx="258085" cy="283333"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="正方形/長方形 117">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA71845-CBB5-D8D5-467E-9D2D185A4662}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13193244" y="3103617"/>
-            <a:ext cx="258085" cy="283333"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="119" name="正方形/長方形 118">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E77B0D3-B0A3-E84A-7A77-6CD8D4078920}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13193244" y="3514066"/>
-            <a:ext cx="258085" cy="283333"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3900,7 +2878,7 @@
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
       <c r="E8" s="47" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
@@ -4960,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:J5"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4972,19 +3950,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="82" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="82" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
@@ -4996,192 +3974,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="64"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="87">
+      <c r="C2" s="53"/>
+      <c r="D2" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="56">
         <v>46000</v>
       </c>
-      <c r="I2" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="79"/>
+      <c r="I2" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="64"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="81"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="54" t="s">
-        <v>71</v>
+      <c r="D6" s="65" t="s">
+        <v>57</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
-      <c r="J6" s="55"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="64" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="54" t="s">
-        <v>68</v>
+      <c r="D7" s="65" t="s">
+        <v>54</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
-      <c r="J7" s="55"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
+      <c r="D8" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="63" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="42"/>
-      <c r="D9" s="58" t="s">
-        <v>76</v>
+      <c r="D9" s="87" t="s">
+        <v>104</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
-      <c r="J9" s="55"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="75" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="63" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="42"/>
-      <c r="D10" s="54" t="s">
-        <v>74</v>
+      <c r="D10" s="65" t="s">
+        <v>60</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
-      <c r="J10" s="55"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="54" t="s">
-        <v>74</v>
+      <c r="D11" s="65" t="s">
+        <v>60</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="55"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="64" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="54" t="s">
-        <v>75</v>
+      <c r="D12" s="65" t="s">
+        <v>61</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
-      <c r="J12" s="55"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -6172,17 +5150,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -6191,14 +5166,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -6225,16 +5203,16 @@
       <c r="A1" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="82" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="82" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -6246,40 +5224,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="64"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="79"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="64"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="81"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7628,8 +6606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7643,16 +6621,16 @@
       <c r="A1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="82" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="82" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -7664,44 +6642,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="64"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="87">
+      <c r="C2" s="53"/>
+      <c r="D2" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="56">
         <v>46006</v>
       </c>
-      <c r="I2" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="79"/>
+      <c r="I2" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="64"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="81"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -9046,8 +8028,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:J32"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9063,16 +8045,16 @@
       <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="82" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="82" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -9084,63 +8066,63 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="64"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="87">
+      <c r="C2" s="53"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="56">
         <v>46006</v>
       </c>
-      <c r="I2" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="79"/>
+      <c r="I2" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="64"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="64"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="44"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="80"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="89" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="41"/>
@@ -9151,22 +8133,22 @@
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
-      <c r="J6" s="55"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" ht="60" customHeight="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="96"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
     </row>
     <row r="8" spans="1:10" ht="60" customHeight="1">
-      <c r="A8" s="64"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -9175,10 +8157,10 @@
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="97"/>
+      <c r="J8" s="98"/>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1">
-      <c r="A9" s="64"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
@@ -9187,10 +8169,10 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="97"/>
+      <c r="J9" s="98"/>
     </row>
     <row r="10" spans="1:10" ht="60" customHeight="1">
-      <c r="A10" s="64"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
@@ -9199,10 +8181,10 @@
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="97"/>
+      <c r="J10" s="98"/>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
-      <c r="A11" s="64"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
@@ -9211,10 +8193,10 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="97"/>
+      <c r="J11" s="98"/>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1">
-      <c r="A12" s="64"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
@@ -9223,10 +8205,10 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="97"/>
+      <c r="J12" s="98"/>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="64"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
@@ -9235,10 +8217,10 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="97"/>
+      <c r="J13" s="98"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="89" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="41"/>
@@ -9249,16 +8231,16 @@
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
-      <c r="J14" s="55"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="89" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="54" t="s">
-        <v>79</v>
+      <c r="D15" s="65" t="s">
+        <v>64</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
@@ -9268,11 +8250,11 @@
         <v>27</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="89" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="41"/>
@@ -9289,109 +8271,109 @@
       <c r="G16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="98" t="s">
+      <c r="H16" s="90" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="41"/>
-      <c r="J16" s="55"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="89" t="s">
-        <v>80</v>
+      <c r="A17" s="91" t="s">
+        <v>65</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
       <c r="D17" s="17" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="54"/>
+        <v>67</v>
+      </c>
+      <c r="H17" s="65"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="55"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="89"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="54"/>
+      <c r="H18" s="65"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="55"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="89"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="54"/>
+      <c r="H19" s="65"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="55"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="89"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="65"/>
       <c r="I20" s="41"/>
-      <c r="J20" s="55"/>
+      <c r="J20" s="66"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="89"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="54"/>
+      <c r="H21" s="65"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="55"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="89"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="54"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="55"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="91"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="60"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="82"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="89" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="41"/>
@@ -9402,15 +8384,15 @@
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
-      <c r="J25" s="55"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="89" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
-      <c r="D26" s="54"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
@@ -9419,11 +8401,11 @@
         <v>27</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="89" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="41"/>
@@ -9440,37 +8422,37 @@
       <c r="G27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="98" t="s">
+      <c r="H27" s="90" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="41"/>
-      <c r="J27" s="55"/>
+      <c r="J27" s="66"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A28" s="89" t="s">
-        <v>86</v>
+      <c r="A28" s="91" t="s">
+        <v>71</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
       <c r="D28" s="17" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="54"/>
+        <v>70</v>
+      </c>
+      <c r="H28" s="65"/>
       <c r="I28" s="41"/>
-      <c r="J28" s="55"/>
+      <c r="J28" s="66"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="30" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="89" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="41"/>
@@ -9481,15 +8463,15 @@
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="55"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="89" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
-      <c r="D31" s="54"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
@@ -9498,11 +8480,11 @@
         <v>27</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="89" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="41"/>
@@ -9519,33 +8501,33 @@
       <c r="G32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="98" t="s">
+      <c r="H32" s="90" t="s">
         <v>19</v>
       </c>
       <c r="I32" s="41"/>
-      <c r="J32" s="55"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A33" s="89" t="s">
-        <v>87</v>
+      <c r="A33" s="91" t="s">
+        <v>72</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
       <c r="D33" s="17" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="54"/>
+        <v>68</v>
+      </c>
+      <c r="H33" s="65"/>
       <c r="I33" s="41"/>
-      <c r="J33" s="55"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="35" spans="1:10" ht="12.75" customHeight="1"/>
@@ -10516,25 +9498,16 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -10551,16 +9524,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:H31"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10571,147 +9553,158 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="20" width="8.140625" customWidth="1"/>
+    <col min="1" max="5" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="17" width="8.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.140625" customWidth="1"/>
     <col min="21" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="82" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="82" t="s">
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="82" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="82" t="s">
+      <c r="P1" s="49"/>
+      <c r="Q1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="82" t="s">
+      <c r="R1" s="49"/>
+      <c r="S1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="53"/>
+      <c r="T1" s="84"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="64"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="96"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="109">
+        <v>46013</v>
+      </c>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="51"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="97"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="64"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="85"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="85"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="97"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="107"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="103"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="51" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="53"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="84"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="89" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="41"/>
@@ -10719,7 +9712,7 @@
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="42"/>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="65" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="41"/>
@@ -10734,10 +9727,10 @@
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
-      <c r="T6" s="55"/>
+      <c r="T6" s="66"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="41"/>
@@ -10745,8 +9738,8 @@
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="42"/>
-      <c r="G7" s="54" t="s">
-        <v>38</v>
+      <c r="G7" s="65" t="s">
+        <v>75</v>
       </c>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
@@ -10760,7 +9753,7 @@
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
       <c r="S7" s="41"/>
-      <c r="T7" s="55"/>
+      <c r="T7" s="66"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -10788,11 +9781,11 @@
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="23" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
@@ -10822,7 +9815,7 @@
       <c r="C10" s="27"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="28"/>
@@ -10852,7 +9845,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="28"/>
@@ -10882,7 +9875,7 @@
       <c r="C12" s="27"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="28"/>
@@ -10912,7 +9905,7 @@
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
@@ -10959,81 +9952,85 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="92" t="s">
-        <v>45</v>
+      <c r="A15" s="89" t="s">
+        <v>43</v>
       </c>
       <c r="B15" s="42"/>
       <c r="C15" s="106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="42"/>
-      <c r="E15" s="98" t="s">
-        <v>46</v>
+      <c r="E15" s="90" t="s">
+        <v>44</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="98" t="s">
-        <v>47</v>
+      <c r="G15" s="90" t="s">
+        <v>45</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
-      <c r="J15" s="98" t="s">
-        <v>48</v>
+      <c r="J15" s="90" t="s">
+        <v>46</v>
       </c>
       <c r="K15" s="42"/>
-      <c r="L15" s="98" t="s">
-        <v>49</v>
+      <c r="L15" s="90" t="s">
+        <v>47</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="42"/>
-      <c r="O15" s="98" t="s">
-        <v>50</v>
+      <c r="O15" s="90" t="s">
+        <v>48</v>
       </c>
       <c r="P15" s="41"/>
       <c r="Q15" s="42"/>
       <c r="R15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="39.75" customHeight="1">
+      <c r="A16" s="104">
+        <v>1</v>
+      </c>
+      <c r="B16" s="114"/>
+      <c r="C16" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="114"/>
+      <c r="E16" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="S15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="T15" s="32" t="s">
+      <c r="F16" s="114"/>
+      <c r="G16" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="113"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="112"/>
+      <c r="L16" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="115"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="110">
+        <v>46013</v>
+      </c>
+      <c r="S16" s="33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="99">
-        <v>1</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="103" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
       <c r="T16" s="34"/>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
@@ -11042,40 +10039,44 @@
       <c r="Y16" s="35"/>
       <c r="Z16" s="35"/>
     </row>
-    <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="99">
+    <row r="17" spans="1:26" ht="47.25" customHeight="1">
+      <c r="A17" s="104">
         <v>2</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="114"/>
+      <c r="E17" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="114"/>
+      <c r="G17" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="113"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="112"/>
+      <c r="L17" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="115"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="110">
+        <v>46013</v>
+      </c>
+      <c r="S17" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="T17" s="34"/>
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
@@ -11084,26 +10085,44 @@
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
     </row>
-    <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="99"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
+    <row r="18" spans="1:26" ht="33" customHeight="1">
+      <c r="A18" s="104">
+        <v>3</v>
+      </c>
+      <c r="B18" s="114"/>
+      <c r="C18" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="114"/>
+      <c r="E18" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="114"/>
+      <c r="G18" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="113"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="112"/>
+      <c r="L18" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="115"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="110">
+        <v>46013</v>
+      </c>
+      <c r="S18" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="T18" s="34"/>
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
@@ -11112,26 +10131,44 @@
       <c r="Y18" s="35"/>
       <c r="Z18" s="35"/>
     </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="99"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="100"/>
+    <row r="19" spans="1:26" ht="41.25" customHeight="1">
+      <c r="A19" s="104">
+        <v>4</v>
+      </c>
+      <c r="B19" s="114"/>
+      <c r="C19" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="111"/>
+      <c r="E19" s="105" t="s">
+        <v>51</v>
+      </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="105"/>
+      <c r="G19" s="99" t="s">
+        <v>94</v>
+      </c>
       <c r="H19" s="41"/>
       <c r="I19" s="42"/>
-      <c r="J19" s="105"/>
+      <c r="J19" s="99" t="s">
+        <v>79</v>
+      </c>
       <c r="K19" s="42"/>
-      <c r="L19" s="103"/>
+      <c r="L19" s="101" t="s">
+        <v>95</v>
+      </c>
       <c r="M19" s="41"/>
       <c r="N19" s="42"/>
-      <c r="O19" s="103"/>
+      <c r="O19" s="101" t="s">
+        <v>96</v>
+      </c>
       <c r="P19" s="41"/>
       <c r="Q19" s="42"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
+      <c r="R19" s="110">
+        <v>46013</v>
+      </c>
+      <c r="S19" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
@@ -11140,26 +10177,44 @@
       <c r="Y19" s="35"/>
       <c r="Z19" s="35"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="99"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="100"/>
+    <row r="20" spans="1:26" ht="41.25" customHeight="1">
+      <c r="A20" s="104">
+        <v>5</v>
+      </c>
+      <c r="B20" s="114"/>
+      <c r="C20" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="111"/>
+      <c r="E20" s="105" t="s">
+        <v>51</v>
+      </c>
       <c r="F20" s="42"/>
-      <c r="G20" s="105"/>
+      <c r="G20" s="99" t="s">
+        <v>83</v>
+      </c>
       <c r="H20" s="41"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="105"/>
+      <c r="J20" s="99" t="s">
+        <v>79</v>
+      </c>
       <c r="K20" s="42"/>
-      <c r="L20" s="103"/>
+      <c r="L20" s="101" t="s">
+        <v>84</v>
+      </c>
       <c r="M20" s="41"/>
       <c r="N20" s="42"/>
-      <c r="O20" s="103"/>
+      <c r="O20" s="101" t="s">
+        <v>85</v>
+      </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="42"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
+      <c r="R20" s="110">
+        <v>46013</v>
+      </c>
+      <c r="S20" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="T20" s="34"/>
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
@@ -11168,26 +10223,44 @@
       <c r="Y20" s="35"/>
       <c r="Z20" s="35"/>
     </row>
-    <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="99"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="100"/>
+    <row r="21" spans="1:26" ht="41.25" customHeight="1">
+      <c r="A21" s="104">
+        <v>6</v>
+      </c>
+      <c r="B21" s="114"/>
+      <c r="C21" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="111"/>
+      <c r="E21" s="105" t="s">
+        <v>89</v>
+      </c>
       <c r="F21" s="42"/>
-      <c r="G21" s="105"/>
+      <c r="G21" s="99" t="s">
+        <v>90</v>
+      </c>
       <c r="H21" s="41"/>
       <c r="I21" s="42"/>
-      <c r="J21" s="105"/>
+      <c r="J21" s="99" t="s">
+        <v>79</v>
+      </c>
       <c r="K21" s="42"/>
-      <c r="L21" s="103"/>
+      <c r="L21" s="101" t="s">
+        <v>91</v>
+      </c>
       <c r="M21" s="41"/>
       <c r="N21" s="42"/>
-      <c r="O21" s="103"/>
+      <c r="O21" s="101" t="s">
+        <v>93</v>
+      </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="42"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
+      <c r="R21" s="110">
+        <v>46013</v>
+      </c>
+      <c r="S21" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="T21" s="34"/>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
@@ -11196,26 +10269,44 @@
       <c r="Y21" s="35"/>
       <c r="Z21" s="35"/>
     </row>
-    <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="99"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="100"/>
+    <row r="22" spans="1:26" ht="41.25" customHeight="1">
+      <c r="A22" s="104">
+        <v>7</v>
+      </c>
+      <c r="B22" s="114"/>
+      <c r="C22" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="111"/>
+      <c r="E22" s="105" t="s">
+        <v>51</v>
+      </c>
       <c r="F22" s="42"/>
-      <c r="G22" s="105"/>
+      <c r="G22" s="99" t="s">
+        <v>100</v>
+      </c>
       <c r="H22" s="41"/>
       <c r="I22" s="42"/>
-      <c r="J22" s="105"/>
+      <c r="J22" s="99" t="s">
+        <v>79</v>
+      </c>
       <c r="K22" s="42"/>
-      <c r="L22" s="103"/>
+      <c r="L22" s="101" t="s">
+        <v>101</v>
+      </c>
       <c r="M22" s="41"/>
       <c r="N22" s="42"/>
-      <c r="O22" s="103"/>
+      <c r="O22" s="101" t="s">
+        <v>102</v>
+      </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="42"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
+      <c r="R22" s="110">
+        <v>46013</v>
+      </c>
+      <c r="S22" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="T22" s="34"/>
       <c r="U22" s="35"/>
       <c r="V22" s="35"/>
@@ -11224,26 +10315,44 @@
       <c r="Y22" s="35"/>
       <c r="Z22" s="35"/>
     </row>
-    <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="100"/>
+    <row r="23" spans="1:26" ht="41.25" customHeight="1">
+      <c r="A23" s="104">
+        <v>8</v>
+      </c>
+      <c r="B23" s="114"/>
+      <c r="C23" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="111"/>
+      <c r="E23" s="105" t="s">
+        <v>51</v>
+      </c>
       <c r="F23" s="42"/>
-      <c r="G23" s="105"/>
+      <c r="G23" s="99" t="s">
+        <v>86</v>
+      </c>
       <c r="H23" s="41"/>
       <c r="I23" s="42"/>
-      <c r="J23" s="105"/>
+      <c r="J23" s="99" t="s">
+        <v>79</v>
+      </c>
       <c r="K23" s="42"/>
-      <c r="L23" s="103"/>
+      <c r="L23" s="101" t="s">
+        <v>87</v>
+      </c>
       <c r="M23" s="41"/>
       <c r="N23" s="42"/>
-      <c r="O23" s="103"/>
+      <c r="O23" s="101" t="s">
+        <v>88</v>
+      </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="42"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
+      <c r="R23" s="110">
+        <v>46013</v>
+      </c>
+      <c r="S23" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="T23" s="34"/>
       <c r="U23" s="35"/>
       <c r="V23" s="35"/>
@@ -11253,21 +10362,21 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="99"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="42"/>
-      <c r="C24" s="100"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="100"/>
+      <c r="E24" s="105"/>
       <c r="F24" s="42"/>
-      <c r="G24" s="105"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="41"/>
       <c r="I24" s="42"/>
-      <c r="J24" s="105"/>
+      <c r="J24" s="99"/>
       <c r="K24" s="42"/>
-      <c r="L24" s="103"/>
+      <c r="L24" s="101"/>
       <c r="M24" s="41"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="103"/>
+      <c r="O24" s="101"/>
       <c r="P24" s="41"/>
       <c r="Q24" s="42"/>
       <c r="R24" s="33"/>
@@ -11281,21 +10390,21 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="99"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="42"/>
-      <c r="C25" s="100"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="42"/>
-      <c r="E25" s="100"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="42"/>
-      <c r="G25" s="105"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="41"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="105"/>
+      <c r="J25" s="99"/>
       <c r="K25" s="42"/>
-      <c r="L25" s="103"/>
+      <c r="L25" s="101"/>
       <c r="M25" s="41"/>
       <c r="N25" s="42"/>
-      <c r="O25" s="103"/>
+      <c r="O25" s="101"/>
       <c r="P25" s="41"/>
       <c r="Q25" s="42"/>
       <c r="R25" s="33"/>
@@ -11309,21 +10418,21 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="99"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="42"/>
-      <c r="C26" s="100"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="42"/>
-      <c r="E26" s="100"/>
+      <c r="E26" s="105"/>
       <c r="F26" s="42"/>
-      <c r="G26" s="105"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="41"/>
       <c r="I26" s="42"/>
-      <c r="J26" s="105"/>
+      <c r="J26" s="99"/>
       <c r="K26" s="42"/>
-      <c r="L26" s="103"/>
+      <c r="L26" s="101"/>
       <c r="M26" s="41"/>
       <c r="N26" s="42"/>
-      <c r="O26" s="103"/>
+      <c r="O26" s="101"/>
       <c r="P26" s="41"/>
       <c r="Q26" s="42"/>
       <c r="R26" s="33"/>
@@ -11337,21 +10446,21 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="99"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="42"/>
-      <c r="C27" s="100"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="42"/>
-      <c r="E27" s="100"/>
+      <c r="E27" s="105"/>
       <c r="F27" s="42"/>
-      <c r="G27" s="105"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="41"/>
       <c r="I27" s="42"/>
-      <c r="J27" s="105"/>
+      <c r="J27" s="99"/>
       <c r="K27" s="42"/>
-      <c r="L27" s="103"/>
+      <c r="L27" s="101"/>
       <c r="M27" s="41"/>
       <c r="N27" s="42"/>
-      <c r="O27" s="103"/>
+      <c r="O27" s="101"/>
       <c r="P27" s="41"/>
       <c r="Q27" s="42"/>
       <c r="R27" s="33"/>
@@ -11365,21 +10474,21 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="99"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="42"/>
-      <c r="C28" s="100"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="42"/>
-      <c r="E28" s="100"/>
+      <c r="E28" s="105"/>
       <c r="F28" s="42"/>
-      <c r="G28" s="105"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="41"/>
       <c r="I28" s="42"/>
-      <c r="J28" s="105"/>
+      <c r="J28" s="99"/>
       <c r="K28" s="42"/>
-      <c r="L28" s="103"/>
+      <c r="L28" s="101"/>
       <c r="M28" s="41"/>
       <c r="N28" s="42"/>
-      <c r="O28" s="103"/>
+      <c r="O28" s="101"/>
       <c r="P28" s="41"/>
       <c r="Q28" s="42"/>
       <c r="R28" s="33"/>
@@ -11393,21 +10502,21 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="99"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="42"/>
-      <c r="C29" s="100"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="42"/>
-      <c r="E29" s="100"/>
+      <c r="E29" s="105"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="105"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="41"/>
       <c r="I29" s="42"/>
-      <c r="J29" s="105"/>
+      <c r="J29" s="99"/>
       <c r="K29" s="42"/>
-      <c r="L29" s="103"/>
+      <c r="L29" s="101"/>
       <c r="M29" s="41"/>
       <c r="N29" s="42"/>
-      <c r="O29" s="103"/>
+      <c r="O29" s="101"/>
       <c r="P29" s="41"/>
       <c r="Q29" s="42"/>
       <c r="R29" s="33"/>
@@ -11421,21 +10530,21 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="99"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="42"/>
-      <c r="C30" s="100"/>
+      <c r="C30" s="105"/>
       <c r="D30" s="42"/>
-      <c r="E30" s="100"/>
+      <c r="E30" s="105"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="105"/>
+      <c r="G30" s="99"/>
       <c r="H30" s="41"/>
       <c r="I30" s="42"/>
-      <c r="J30" s="105"/>
+      <c r="J30" s="99"/>
       <c r="K30" s="42"/>
-      <c r="L30" s="103"/>
+      <c r="L30" s="101"/>
       <c r="M30" s="41"/>
       <c r="N30" s="42"/>
-      <c r="O30" s="103"/>
+      <c r="O30" s="101"/>
       <c r="P30" s="41"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="33"/>
@@ -11449,26 +10558,26 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="101"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="37"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="34"/>
       <c r="U31" s="35"/>
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
@@ -11477,38 +10586,173 @@
       <c r="Z31" s="35"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="4:10" ht="12.75" customHeight="1">
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="35" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="36" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="37" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="38" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="39" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="40" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="41" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="42" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="43" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="44" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="45" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="46" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="47" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="48" spans="4:10" ht="12.75" customHeight="1"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+    </row>
+    <row r="33" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A33" s="104"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+    </row>
+    <row r="34" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A34" s="104"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+    </row>
+    <row r="35" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A35" s="104"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+    </row>
+    <row r="36" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A36" s="107"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="102"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+    </row>
+    <row r="37" spans="1:26" ht="12.75" customHeight="1">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" ht="12.75" customHeight="1">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="40" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="41" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="43" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="49" ht="12.75" customHeight="1"/>
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="12.75" customHeight="1"/>
@@ -12461,53 +11705,128 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="1001" ht="12.75" customHeight="1"/>
+    <row r="1002" ht="12.75" customHeight="1"/>
+    <row r="1003" ht="12.75" customHeight="1"/>
+    <row r="1004" ht="12.75" customHeight="1"/>
+    <row r="1005" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="136">
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
+  <mergeCells count="171">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="K2:N4"/>
     <mergeCell ref="O2:P4"/>
     <mergeCell ref="Q2:R4"/>
@@ -12519,86 +11838,51 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="G2:J4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/ドキュメント/成果物_基本・詳細設計_塩谷.xlsx
+++ b/ドキュメント/成果物_基本・詳細設計_塩谷.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER122\Documents\project\TMS60\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90270F82-5728-4F24-A767-72EBBDA3D062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549577C1-9D6B-4898-86A0-C88663D20EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1714,6 +1714,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1738,56 +1741,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1795,11 +1765,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1816,17 +1792,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1837,34 +1822,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1874,6 +1871,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1891,29 +1891,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1921,29 +1930,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="56" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2779,85 +2779,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -2877,46 +2877,46 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="40" t="s">
+      <c r="H13" s="43"/>
+      <c r="I13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="40"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="40"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -2925,13 +2925,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -3938,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:J6"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3950,19 +3950,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="71"/>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
@@ -3974,192 +3974,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="56">
+      <c r="G2" s="85"/>
+      <c r="H2" s="88">
         <v>46000</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="82"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="83" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="84"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="65" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="66"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="65" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="66"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="65" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="87" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="66"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="63" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="65" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="66"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="65" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="66"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="65" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="66"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="82"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -5150,6 +5150,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -5158,25 +5177,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -5200,19 +5200,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="71"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -5224,40 +5224,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="82"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -6618,19 +6618,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="71"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -6642,48 +6642,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="56">
+      <c r="G2" s="85"/>
+      <c r="H2" s="88">
         <v>46006</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="82"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -8042,19 +8042,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="71"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -8066,74 +8066,74 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="56">
+      <c r="A2" s="65"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="88">
         <v>46006</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="61"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="84"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="66"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="60" customHeight="1">
       <c r="A7" s="95"/>
@@ -8148,104 +8148,104 @@
       <c r="J7" s="97"/>
     </row>
     <row r="8" spans="1:10" ht="60" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="98"/>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="98"/>
     </row>
     <row r="10" spans="1:10" ht="60" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="98"/>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="98"/>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="98"/>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="98"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="66"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="65" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="15" t="s">
         <v>27</v>
       </c>
@@ -8254,11 +8254,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="15" t="s">
         <v>29</v>
       </c>
@@ -8271,18 +8271,18 @@
       <c r="G16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="90" t="s">
+      <c r="H16" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="66"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="56"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="17" t="s">
         <v>67</v>
       </c>
@@ -8295,108 +8295,108 @@
       <c r="G17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="65"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="66"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="66"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="56"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="66"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="66"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="56"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="66"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="91"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="66"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="56"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="93"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="82"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="66"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="15" t="s">
         <v>27</v>
       </c>
@@ -8405,11 +8405,11 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="15" t="s">
         <v>29</v>
       </c>
@@ -8422,18 +8422,18 @@
       <c r="G27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="90" t="s">
+      <c r="H27" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="66"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="17" t="s">
         <v>70</v>
       </c>
@@ -8446,36 +8446,36 @@
       <c r="G28" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="65"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="66"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="30" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
       <c r="I31" s="15" t="s">
         <v>27</v>
       </c>
@@ -8484,11 +8484,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="15" t="s">
         <v>29</v>
       </c>
@@ -8501,18 +8501,18 @@
       <c r="G32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="90" t="s">
+      <c r="H32" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="66"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="56"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="17" t="s">
         <v>68</v>
       </c>
@@ -8525,9 +8525,9 @@
       <c r="G33" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="65"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="66"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="56"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="35" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9498,16 +9498,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -9524,25 +9533,16 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9555,8 +9555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9570,190 +9570,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="48" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="48" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="48" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="48" t="s">
+      <c r="P1" s="71"/>
+      <c r="Q1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="48" t="s">
+      <c r="R1" s="71"/>
+      <c r="S1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="84"/>
+      <c r="T1" s="54"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="50" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="84" t="s">
         <v>58</v>
       </c>
       <c r="H2" s="96"/>
       <c r="I2" s="96"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="50" t="s">
+      <c r="J2" s="85"/>
+      <c r="K2" s="84" t="s">
         <v>74</v>
       </c>
       <c r="L2" s="96"/>
       <c r="M2" s="96"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="109">
-        <v>46013</v>
-      </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="50" t="s">
+      <c r="N2" s="85"/>
+      <c r="O2" s="114">
+        <v>46016</v>
+      </c>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="51"/>
-      <c r="S2" s="50"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="84"/>
       <c r="T2" s="97"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="52"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="86"/>
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="103"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="115"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="83" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="84"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="65" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="66"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="56"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="65" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="66"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="56"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -9952,37 +9952,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="106" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="90" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="90" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="90" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="90" t="s">
+      <c r="K15" s="43"/>
+      <c r="L15" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="90" t="s">
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
       <c r="R15" s="15" t="s">
         <v>82</v>
       </c>
@@ -9994,39 +9994,39 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="39.75" customHeight="1">
-      <c r="A16" s="104">
+      <c r="A16" s="100">
         <v>1</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="105" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="105" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="114"/>
-      <c r="G16" s="99" t="s">
+      <c r="F16" s="101"/>
+      <c r="G16" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="113"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="99" t="s">
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="K16" s="112"/>
-      <c r="L16" s="101" t="s">
+      <c r="K16" s="105"/>
+      <c r="L16" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="101" t="s">
+      <c r="M16" s="107"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="110">
-        <v>46013</v>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="40">
+        <v>46016</v>
       </c>
       <c r="S16" s="33" t="s">
         <v>53</v>
@@ -10040,39 +10040,39 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A17" s="104">
+      <c r="A17" s="100">
         <v>2</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="105" t="s">
+      <c r="B17" s="101"/>
+      <c r="C17" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="105" t="s">
+      <c r="D17" s="101"/>
+      <c r="E17" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="114"/>
-      <c r="G17" s="99" t="s">
+      <c r="F17" s="101"/>
+      <c r="G17" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="113"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="99" t="s">
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="112"/>
-      <c r="L17" s="101" t="s">
+      <c r="K17" s="105"/>
+      <c r="L17" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="M17" s="115"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="101" t="s">
+      <c r="M17" s="107"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="110">
-        <v>46013</v>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="40">
+        <v>46016</v>
       </c>
       <c r="S17" s="33" t="s">
         <v>53</v>
@@ -10086,39 +10086,39 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="33" customHeight="1">
-      <c r="A18" s="104">
+      <c r="A18" s="100">
         <v>3</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="105" t="s">
+      <c r="B18" s="101"/>
+      <c r="C18" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="105" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="114"/>
-      <c r="G18" s="99" t="s">
+      <c r="F18" s="101"/>
+      <c r="G18" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="113"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="99" t="s">
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="112"/>
-      <c r="L18" s="101" t="s">
+      <c r="K18" s="105"/>
+      <c r="L18" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="115"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="101" t="s">
+      <c r="M18" s="107"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="110">
-        <v>46013</v>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="40">
+        <v>46016</v>
       </c>
       <c r="S18" s="33" t="s">
         <v>53</v>
@@ -10132,39 +10132,39 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A19" s="104">
+      <c r="A19" s="100">
         <v>4</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="105" t="s">
+      <c r="B19" s="101"/>
+      <c r="C19" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="105" t="s">
+      <c r="D19" s="109"/>
+      <c r="E19" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="99" t="s">
+      <c r="F19" s="43"/>
+      <c r="G19" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="99" t="s">
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="101" t="s">
+      <c r="K19" s="43"/>
+      <c r="L19" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="101" t="s">
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="110">
-        <v>46013</v>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="40">
+        <v>46016</v>
       </c>
       <c r="S19" s="33" t="s">
         <v>53</v>
@@ -10178,39 +10178,39 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A20" s="104">
+      <c r="A20" s="100">
         <v>5</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="105" t="s">
+      <c r="B20" s="101"/>
+      <c r="C20" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="105" t="s">
+      <c r="D20" s="109"/>
+      <c r="E20" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="99" t="s">
+      <c r="F20" s="43"/>
+      <c r="G20" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="99" t="s">
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="101" t="s">
+      <c r="K20" s="43"/>
+      <c r="L20" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="101" t="s">
+      <c r="M20" s="42"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="110">
-        <v>46013</v>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="40">
+        <v>46016</v>
       </c>
       <c r="S20" s="33" t="s">
         <v>53</v>
@@ -10224,39 +10224,39 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A21" s="104">
+      <c r="A21" s="100">
         <v>6</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="105" t="s">
+      <c r="B21" s="101"/>
+      <c r="C21" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="105" t="s">
+      <c r="D21" s="109"/>
+      <c r="E21" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="99" t="s">
+      <c r="F21" s="43"/>
+      <c r="G21" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="99" t="s">
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="101" t="s">
+      <c r="K21" s="43"/>
+      <c r="L21" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="101" t="s">
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="110">
-        <v>46013</v>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="40">
+        <v>46016</v>
       </c>
       <c r="S21" s="33" t="s">
         <v>53</v>
@@ -10270,39 +10270,39 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A22" s="104">
+      <c r="A22" s="100">
         <v>7</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="105" t="s">
+      <c r="B22" s="101"/>
+      <c r="C22" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="105" t="s">
+      <c r="D22" s="109"/>
+      <c r="E22" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="99" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="99" t="s">
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="101" t="s">
+      <c r="K22" s="43"/>
+      <c r="L22" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="101" t="s">
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="110">
-        <v>46013</v>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="40">
+        <v>46016</v>
       </c>
       <c r="S22" s="33" t="s">
         <v>53</v>
@@ -10316,39 +10316,39 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A23" s="104">
+      <c r="A23" s="100">
         <v>8</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="105" t="s">
+      <c r="B23" s="101"/>
+      <c r="C23" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="105" t="s">
+      <c r="D23" s="109"/>
+      <c r="E23" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="99" t="s">
+      <c r="F23" s="43"/>
+      <c r="G23" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="99" t="s">
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="101" t="s">
+      <c r="K23" s="43"/>
+      <c r="L23" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="101" t="s">
+      <c r="M23" s="42"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="110">
-        <v>46013</v>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="40">
+        <v>46016</v>
       </c>
       <c r="S23" s="33" t="s">
         <v>53</v>
@@ -10362,23 +10362,23 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="104"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="42"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34"/>
@@ -10390,23 +10390,23 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="104"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="42"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
@@ -10418,23 +10418,23 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="104"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
+      <c r="A26" s="100"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
@@ -10446,23 +10446,23 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="104"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="42"/>
+      <c r="A27" s="100"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
@@ -10474,23 +10474,23 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="104"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="42"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="43"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
@@ -10502,23 +10502,23 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
+      <c r="A29" s="100"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
@@ -10530,23 +10530,23 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="42"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
@@ -10558,23 +10558,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="42"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="43"/>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
       <c r="T31" s="34"/>
@@ -10586,23 +10586,23 @@
       <c r="Z31" s="35"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="42"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="106"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="43"/>
       <c r="R32" s="33"/>
       <c r="S32" s="33"/>
       <c r="T32" s="34"/>
@@ -10614,23 +10614,23 @@
       <c r="Z32" s="35"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="42"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="43"/>
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
       <c r="T33" s="34"/>
@@ -10642,23 +10642,23 @@
       <c r="Z33" s="35"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A34" s="104"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="42"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="43"/>
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
       <c r="T34" s="34"/>
@@ -10670,23 +10670,23 @@
       <c r="Z34" s="35"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A35" s="104"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="42"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="43"/>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
       <c r="T35" s="34"/>
@@ -10698,23 +10698,23 @@
       <c r="Z35" s="35"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A36" s="107"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="102"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="69"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="112"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="61"/>
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
       <c r="T36" s="37"/>
@@ -11712,6 +11712,153 @@
     <row r="1005" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="171">
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
@@ -11736,153 +11883,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/ドキュメント/成果物_基本・詳細設計_塩谷.xlsx
+++ b/ドキュメント/成果物_基本・詳細設計_塩谷.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER122\Documents\project\TMS60\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549577C1-9D6B-4898-86A0-C88663D20EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C32BE0-BE9F-469C-A1E9-BF642953BFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="106">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -837,6 +837,13 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>達成</t>
+    <rPh sb="0" eb="2">
+      <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -1741,23 +1748,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1765,17 +1805,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1792,26 +1826,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1822,46 +1847,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1871,9 +1884,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1891,18 +1901,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1912,14 +1910,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1929,21 +1951,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3950,19 +3957,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="83" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="83" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="71"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
@@ -3974,72 +3981,72 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="65"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="88">
+      <c r="G2" s="52"/>
+      <c r="H2" s="57">
         <v>46000</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="80"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="65"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="81"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="82"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="52" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="65" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="66" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="42"/>
@@ -4047,15 +4054,15 @@
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
-      <c r="J6" s="56"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="65" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="43"/>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="66" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="42"/>
@@ -4063,33 +4070,33 @@
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
-      <c r="J7" s="56"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="43"/>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="64" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="88" t="s">
         <v>104</v>
       </c>
       <c r="E9" s="42"/>
@@ -4097,15 +4104,15 @@
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
-      <c r="J9" s="56"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="76" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="64" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="43"/>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="66" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="42"/>
@@ -4113,15 +4120,15 @@
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
-      <c r="J10" s="56"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="64" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="43"/>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="66" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="42"/>
@@ -4129,15 +4136,15 @@
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
-      <c r="J11" s="56"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="65" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="66" t="s">
         <v>61</v>
       </c>
       <c r="E12" s="42"/>
@@ -4145,21 +4152,21 @@
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
-      <c r="J12" s="56"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="83"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -5150,17 +5157,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -5169,14 +5173,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -5203,16 +5210,16 @@
       <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="83" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="83" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="71"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -5224,40 +5231,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="65"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="65"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="81"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="82"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -6621,16 +6628,16 @@
       <c r="A1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="83" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="83" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="71"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -6642,48 +6649,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="65"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="88">
+      <c r="G2" s="52"/>
+      <c r="H2" s="57">
         <v>46006</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="80"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="65"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="81"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="82"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -8045,16 +8052,16 @@
       <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="83" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="83" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="71"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -8066,63 +8073,63 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="65"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="88">
+      <c r="C2" s="54"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="57">
         <v>46006</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="80"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="65"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="81"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="65"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="45"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="81"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="94" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="90" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="42"/>
@@ -8133,22 +8140,22 @@
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
-      <c r="J6" s="56"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" ht="60" customHeight="1">
-      <c r="A7" s="95"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="98"/>
     </row>
     <row r="8" spans="1:10" ht="60" customHeight="1">
-      <c r="A8" s="65"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
@@ -8157,10 +8164,10 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
-      <c r="J8" s="98"/>
+      <c r="J8" s="99"/>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1">
-      <c r="A9" s="65"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -8169,10 +8176,10 @@
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
-      <c r="J9" s="98"/>
+      <c r="J9" s="99"/>
     </row>
     <row r="10" spans="1:10" ht="60" customHeight="1">
-      <c r="A10" s="65"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
@@ -8181,10 +8188,10 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
-      <c r="J10" s="98"/>
+      <c r="J10" s="99"/>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
-      <c r="A11" s="65"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
@@ -8193,10 +8200,10 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
-      <c r="J11" s="98"/>
+      <c r="J11" s="99"/>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1">
-      <c r="A12" s="65"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
@@ -8205,10 +8212,10 @@
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
-      <c r="J12" s="98"/>
+      <c r="J12" s="99"/>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="65"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
@@ -8217,10 +8224,10 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
-      <c r="J13" s="98"/>
+      <c r="J13" s="99"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="90" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="42"/>
@@ -8231,15 +8238,15 @@
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
-      <c r="J14" s="56"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="90" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="66" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="42"/>
@@ -8254,7 +8261,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="90" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="42"/>
@@ -8271,14 +8278,14 @@
       <c r="G16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="99" t="s">
+      <c r="H16" s="91" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="42"/>
-      <c r="J16" s="56"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="92" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="42"/>
@@ -8295,85 +8302,85 @@
       <c r="G17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="55"/>
+      <c r="H17" s="66"/>
       <c r="I17" s="42"/>
-      <c r="J17" s="56"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="90"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="55"/>
+      <c r="H18" s="66"/>
       <c r="I18" s="42"/>
-      <c r="J18" s="56"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="90"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="42"/>
       <c r="C19" s="43"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="55"/>
+      <c r="H19" s="66"/>
       <c r="I19" s="42"/>
-      <c r="J19" s="56"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="90"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="42"/>
       <c r="C20" s="43"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="55"/>
+      <c r="H20" s="66"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="56"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="90"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="42"/>
       <c r="C21" s="43"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="55"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="42"/>
-      <c r="J21" s="56"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="90"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="42"/>
       <c r="C22" s="43"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="55"/>
+      <c r="H22" s="66"/>
       <c r="I22" s="42"/>
-      <c r="J22" s="56"/>
+      <c r="J22" s="67"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="92"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="61"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="83"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="90" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="42"/>
@@ -8384,15 +8391,15 @@
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="56"/>
+      <c r="J25" s="67"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="90" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="43"/>
-      <c r="D26" s="55"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -8405,7 +8412,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="90" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="42"/>
@@ -8422,14 +8429,14 @@
       <c r="G27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="99" t="s">
+      <c r="H27" s="91" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="42"/>
-      <c r="J27" s="56"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="92" t="s">
         <v>71</v>
       </c>
       <c r="B28" s="42"/>
@@ -8446,13 +8453,13 @@
       <c r="G28" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="55"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="42"/>
-      <c r="J28" s="56"/>
+      <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="30" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="90" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="42"/>
@@ -8463,15 +8470,15 @@
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
-      <c r="J30" s="56"/>
+      <c r="J30" s="67"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="90" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="43"/>
-      <c r="D31" s="55"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -8484,7 +8491,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="90" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="42"/>
@@ -8501,14 +8508,14 @@
       <c r="G32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="99" t="s">
+      <c r="H32" s="91" t="s">
         <v>19</v>
       </c>
       <c r="I32" s="42"/>
-      <c r="J32" s="56"/>
+      <c r="J32" s="67"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="92" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="42"/>
@@ -8525,9 +8532,9 @@
       <c r="G33" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="55"/>
+      <c r="H33" s="66"/>
       <c r="I33" s="42"/>
-      <c r="J33" s="56"/>
+      <c r="J33" s="67"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="35" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9498,25 +9505,16 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -9533,16 +9531,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:H31"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9555,8 +9562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9570,141 +9577,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="83" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="83" t="s">
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="83" t="s">
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="83" t="s">
+      <c r="P1" s="50"/>
+      <c r="Q1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="71"/>
-      <c r="S1" s="83" t="s">
+      <c r="R1" s="50"/>
+      <c r="S1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="54"/>
+      <c r="T1" s="85"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="65"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="84" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="84" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="114">
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="106">
         <v>46016</v>
       </c>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="84" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="85"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="97"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="65"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="86"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="86"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="45"/>
       <c r="M3" s="45"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="98"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="99"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="115"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="107"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="52" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="54"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="85"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="90" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="42"/>
@@ -9712,7 +9719,7 @@
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="43"/>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="66" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="42"/>
@@ -9727,10 +9734,10 @@
       <c r="Q6" s="42"/>
       <c r="R6" s="42"/>
       <c r="S6" s="42"/>
-      <c r="T6" s="56"/>
+      <c r="T6" s="67"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="90" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="42"/>
@@ -9738,7 +9745,7 @@
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="F7" s="43"/>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="66" t="s">
         <v>75</v>
       </c>
       <c r="H7" s="42"/>
@@ -9753,7 +9760,7 @@
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
       <c r="S7" s="42"/>
-      <c r="T7" s="56"/>
+      <c r="T7" s="67"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -9952,33 +9959,33 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="43"/>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="112" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="43"/>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="91" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="91" t="s">
         <v>45</v>
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="43"/>
-      <c r="J15" s="99" t="s">
+      <c r="J15" s="91" t="s">
         <v>46</v>
       </c>
       <c r="K15" s="43"/>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="91" t="s">
         <v>47</v>
       </c>
       <c r="M15" s="42"/>
       <c r="N15" s="43"/>
-      <c r="O15" s="99" t="s">
+      <c r="O15" s="91" t="s">
         <v>48</v>
       </c>
       <c r="P15" s="42"/>
@@ -9994,44 +10001,46 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="39.75" customHeight="1">
-      <c r="A16" s="100">
+      <c r="A16" s="108">
         <v>1</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102" t="s">
+      <c r="B16" s="113"/>
+      <c r="C16" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102" t="s">
+      <c r="D16" s="113"/>
+      <c r="E16" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="103" t="s">
+      <c r="F16" s="113"/>
+      <c r="G16" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="103" t="s">
+      <c r="H16" s="101"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="K16" s="105"/>
-      <c r="L16" s="106" t="s">
+      <c r="K16" s="102"/>
+      <c r="L16" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="107"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="106" t="s">
+      <c r="M16" s="110"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="108"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="111"/>
       <c r="R16" s="40">
         <v>46016</v>
       </c>
       <c r="S16" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="T16" s="34"/>
+      <c r="T16" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
@@ -10040,44 +10049,46 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A17" s="100">
+      <c r="A17" s="108">
         <v>2</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102" t="s">
+      <c r="B17" s="113"/>
+      <c r="C17" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102" t="s">
+      <c r="D17" s="113"/>
+      <c r="E17" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="103" t="s">
+      <c r="F17" s="113"/>
+      <c r="G17" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="103" t="s">
+      <c r="H17" s="101"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="105"/>
-      <c r="L17" s="106" t="s">
+      <c r="K17" s="102"/>
+      <c r="L17" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="M17" s="107"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="106" t="s">
+      <c r="M17" s="110"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="108"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="111"/>
       <c r="R17" s="40">
         <v>46016</v>
       </c>
       <c r="S17" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="T17" s="34"/>
+      <c r="T17" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
@@ -10086,44 +10097,46 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="33" customHeight="1">
-      <c r="A18" s="100">
+      <c r="A18" s="108">
         <v>3</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="102" t="s">
+      <c r="B18" s="113"/>
+      <c r="C18" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102" t="s">
+      <c r="D18" s="113"/>
+      <c r="E18" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="103" t="s">
+      <c r="F18" s="113"/>
+      <c r="G18" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="103" t="s">
+      <c r="H18" s="101"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="105"/>
-      <c r="L18" s="106" t="s">
+      <c r="K18" s="102"/>
+      <c r="L18" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="107"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="106" t="s">
+      <c r="M18" s="110"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="108"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="111"/>
       <c r="R18" s="40">
         <v>46016</v>
       </c>
       <c r="S18" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="T18" s="34"/>
+      <c r="T18" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
@@ -10132,33 +10145,33 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A19" s="100">
+      <c r="A19" s="108">
         <v>4</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="102" t="s">
+      <c r="B19" s="113"/>
+      <c r="C19" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="102" t="s">
+      <c r="D19" s="114"/>
+      <c r="E19" s="109" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="43"/>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="100" t="s">
         <v>94</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="43"/>
-      <c r="J19" s="103" t="s">
+      <c r="J19" s="100" t="s">
         <v>79</v>
       </c>
       <c r="K19" s="43"/>
-      <c r="L19" s="106" t="s">
+      <c r="L19" s="104" t="s">
         <v>95</v>
       </c>
       <c r="M19" s="42"/>
       <c r="N19" s="43"/>
-      <c r="O19" s="106" t="s">
+      <c r="O19" s="104" t="s">
         <v>96</v>
       </c>
       <c r="P19" s="42"/>
@@ -10169,7 +10182,9 @@
       <c r="S19" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="T19" s="34"/>
+      <c r="T19" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
@@ -10178,33 +10193,33 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A20" s="100">
+      <c r="A20" s="108">
         <v>5</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102" t="s">
+      <c r="B20" s="113"/>
+      <c r="C20" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="109"/>
-      <c r="E20" s="102" t="s">
+      <c r="D20" s="114"/>
+      <c r="E20" s="109" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="43"/>
-      <c r="G20" s="103" t="s">
+      <c r="G20" s="100" t="s">
         <v>83</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="43"/>
-      <c r="J20" s="103" t="s">
+      <c r="J20" s="100" t="s">
         <v>79</v>
       </c>
       <c r="K20" s="43"/>
-      <c r="L20" s="106" t="s">
+      <c r="L20" s="104" t="s">
         <v>84</v>
       </c>
       <c r="M20" s="42"/>
       <c r="N20" s="43"/>
-      <c r="O20" s="106" t="s">
+      <c r="O20" s="104" t="s">
         <v>85</v>
       </c>
       <c r="P20" s="42"/>
@@ -10215,7 +10230,9 @@
       <c r="S20" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="T20" s="34"/>
+      <c r="T20" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
@@ -10224,33 +10241,33 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A21" s="100">
+      <c r="A21" s="108">
         <v>6</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="113"/>
+      <c r="C21" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="102" t="s">
+      <c r="D21" s="114"/>
+      <c r="E21" s="109" t="s">
         <v>89</v>
       </c>
       <c r="F21" s="43"/>
-      <c r="G21" s="103" t="s">
+      <c r="G21" s="100" t="s">
         <v>90</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="103" t="s">
+      <c r="J21" s="100" t="s">
         <v>79</v>
       </c>
       <c r="K21" s="43"/>
-      <c r="L21" s="106" t="s">
+      <c r="L21" s="104" t="s">
         <v>91</v>
       </c>
       <c r="M21" s="42"/>
       <c r="N21" s="43"/>
-      <c r="O21" s="106" t="s">
+      <c r="O21" s="104" t="s">
         <v>93</v>
       </c>
       <c r="P21" s="42"/>
@@ -10261,7 +10278,9 @@
       <c r="S21" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="T21" s="34"/>
+      <c r="T21" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
@@ -10270,33 +10289,33 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A22" s="100">
+      <c r="A22" s="108">
         <v>7</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102" t="s">
+      <c r="B22" s="113"/>
+      <c r="C22" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="102" t="s">
+      <c r="D22" s="114"/>
+      <c r="E22" s="109" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="43"/>
-      <c r="G22" s="103" t="s">
+      <c r="G22" s="100" t="s">
         <v>100</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="43"/>
-      <c r="J22" s="103" t="s">
+      <c r="J22" s="100" t="s">
         <v>79</v>
       </c>
       <c r="K22" s="43"/>
-      <c r="L22" s="106" t="s">
+      <c r="L22" s="104" t="s">
         <v>101</v>
       </c>
       <c r="M22" s="42"/>
       <c r="N22" s="43"/>
-      <c r="O22" s="106" t="s">
+      <c r="O22" s="104" t="s">
         <v>102</v>
       </c>
       <c r="P22" s="42"/>
@@ -10307,7 +10326,9 @@
       <c r="S22" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="T22" s="34"/>
+      <c r="T22" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="U22" s="35"/>
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
@@ -10316,33 +10337,33 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A23" s="100">
+      <c r="A23" s="108">
         <v>8</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="102" t="s">
+      <c r="B23" s="113"/>
+      <c r="C23" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="109"/>
-      <c r="E23" s="102" t="s">
+      <c r="D23" s="114"/>
+      <c r="E23" s="109" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="43"/>
-      <c r="G23" s="103" t="s">
+      <c r="G23" s="100" t="s">
         <v>86</v>
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="43"/>
-      <c r="J23" s="103" t="s">
+      <c r="J23" s="100" t="s">
         <v>79</v>
       </c>
       <c r="K23" s="43"/>
-      <c r="L23" s="106" t="s">
+      <c r="L23" s="104" t="s">
         <v>87</v>
       </c>
       <c r="M23" s="42"/>
       <c r="N23" s="43"/>
-      <c r="O23" s="106" t="s">
+      <c r="O23" s="104" t="s">
         <v>88</v>
       </c>
       <c r="P23" s="42"/>
@@ -10353,7 +10374,9 @@
       <c r="S23" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="T23" s="34"/>
+      <c r="T23" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="U23" s="35"/>
       <c r="V23" s="35"/>
       <c r="W23" s="35"/>
@@ -10362,21 +10385,21 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="100"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="43"/>
-      <c r="C24" s="102"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="43"/>
-      <c r="E24" s="102"/>
+      <c r="E24" s="109"/>
       <c r="F24" s="43"/>
-      <c r="G24" s="103"/>
+      <c r="G24" s="100"/>
       <c r="H24" s="42"/>
       <c r="I24" s="43"/>
-      <c r="J24" s="103"/>
+      <c r="J24" s="100"/>
       <c r="K24" s="43"/>
-      <c r="L24" s="106"/>
+      <c r="L24" s="104"/>
       <c r="M24" s="42"/>
       <c r="N24" s="43"/>
-      <c r="O24" s="106"/>
+      <c r="O24" s="104"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="33"/>
@@ -10390,21 +10413,21 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="100"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="43"/>
-      <c r="C25" s="102"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="43"/>
-      <c r="E25" s="102"/>
+      <c r="E25" s="109"/>
       <c r="F25" s="43"/>
-      <c r="G25" s="103"/>
+      <c r="G25" s="100"/>
       <c r="H25" s="42"/>
       <c r="I25" s="43"/>
-      <c r="J25" s="103"/>
+      <c r="J25" s="100"/>
       <c r="K25" s="43"/>
-      <c r="L25" s="106"/>
+      <c r="L25" s="104"/>
       <c r="M25" s="42"/>
       <c r="N25" s="43"/>
-      <c r="O25" s="106"/>
+      <c r="O25" s="104"/>
       <c r="P25" s="42"/>
       <c r="Q25" s="43"/>
       <c r="R25" s="33"/>
@@ -10418,21 +10441,21 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="43"/>
-      <c r="C26" s="102"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="43"/>
-      <c r="E26" s="102"/>
+      <c r="E26" s="109"/>
       <c r="F26" s="43"/>
-      <c r="G26" s="103"/>
+      <c r="G26" s="100"/>
       <c r="H26" s="42"/>
       <c r="I26" s="43"/>
-      <c r="J26" s="103"/>
+      <c r="J26" s="100"/>
       <c r="K26" s="43"/>
-      <c r="L26" s="106"/>
+      <c r="L26" s="104"/>
       <c r="M26" s="42"/>
       <c r="N26" s="43"/>
-      <c r="O26" s="106"/>
+      <c r="O26" s="104"/>
       <c r="P26" s="42"/>
       <c r="Q26" s="43"/>
       <c r="R26" s="33"/>
@@ -10446,21 +10469,21 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="43"/>
-      <c r="C27" s="102"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="43"/>
-      <c r="E27" s="102"/>
+      <c r="E27" s="109"/>
       <c r="F27" s="43"/>
-      <c r="G27" s="103"/>
+      <c r="G27" s="100"/>
       <c r="H27" s="42"/>
       <c r="I27" s="43"/>
-      <c r="J27" s="103"/>
+      <c r="J27" s="100"/>
       <c r="K27" s="43"/>
-      <c r="L27" s="106"/>
+      <c r="L27" s="104"/>
       <c r="M27" s="42"/>
       <c r="N27" s="43"/>
-      <c r="O27" s="106"/>
+      <c r="O27" s="104"/>
       <c r="P27" s="42"/>
       <c r="Q27" s="43"/>
       <c r="R27" s="33"/>
@@ -10474,21 +10497,21 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="43"/>
-      <c r="C28" s="102"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="43"/>
-      <c r="E28" s="102"/>
+      <c r="E28" s="109"/>
       <c r="F28" s="43"/>
-      <c r="G28" s="103"/>
+      <c r="G28" s="100"/>
       <c r="H28" s="42"/>
       <c r="I28" s="43"/>
-      <c r="J28" s="103"/>
+      <c r="J28" s="100"/>
       <c r="K28" s="43"/>
-      <c r="L28" s="106"/>
+      <c r="L28" s="104"/>
       <c r="M28" s="42"/>
       <c r="N28" s="43"/>
-      <c r="O28" s="106"/>
+      <c r="O28" s="104"/>
       <c r="P28" s="42"/>
       <c r="Q28" s="43"/>
       <c r="R28" s="33"/>
@@ -10502,21 +10525,21 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="43"/>
-      <c r="C29" s="102"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="43"/>
-      <c r="E29" s="102"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="43"/>
-      <c r="G29" s="103"/>
+      <c r="G29" s="100"/>
       <c r="H29" s="42"/>
       <c r="I29" s="43"/>
-      <c r="J29" s="103"/>
+      <c r="J29" s="100"/>
       <c r="K29" s="43"/>
-      <c r="L29" s="106"/>
+      <c r="L29" s="104"/>
       <c r="M29" s="42"/>
       <c r="N29" s="43"/>
-      <c r="O29" s="106"/>
+      <c r="O29" s="104"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="43"/>
       <c r="R29" s="33"/>
@@ -10530,21 +10553,21 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="43"/>
-      <c r="C30" s="102"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="43"/>
-      <c r="E30" s="102"/>
+      <c r="E30" s="109"/>
       <c r="F30" s="43"/>
-      <c r="G30" s="103"/>
+      <c r="G30" s="100"/>
       <c r="H30" s="42"/>
       <c r="I30" s="43"/>
-      <c r="J30" s="103"/>
+      <c r="J30" s="100"/>
       <c r="K30" s="43"/>
-      <c r="L30" s="106"/>
+      <c r="L30" s="104"/>
       <c r="M30" s="42"/>
       <c r="N30" s="43"/>
-      <c r="O30" s="106"/>
+      <c r="O30" s="104"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="43"/>
       <c r="R30" s="33"/>
@@ -10558,21 +10581,21 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="100"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="43"/>
-      <c r="C31" s="102"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="43"/>
-      <c r="E31" s="102"/>
+      <c r="E31" s="109"/>
       <c r="F31" s="43"/>
-      <c r="G31" s="103"/>
+      <c r="G31" s="100"/>
       <c r="H31" s="42"/>
       <c r="I31" s="43"/>
-      <c r="J31" s="103"/>
+      <c r="J31" s="100"/>
       <c r="K31" s="43"/>
-      <c r="L31" s="106"/>
+      <c r="L31" s="104"/>
       <c r="M31" s="42"/>
       <c r="N31" s="43"/>
-      <c r="O31" s="106"/>
+      <c r="O31" s="104"/>
       <c r="P31" s="42"/>
       <c r="Q31" s="43"/>
       <c r="R31" s="33"/>
@@ -10586,21 +10609,21 @@
       <c r="Z31" s="35"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A32" s="100"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="43"/>
-      <c r="C32" s="102"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="43"/>
-      <c r="E32" s="102"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="43"/>
-      <c r="G32" s="103"/>
+      <c r="G32" s="100"/>
       <c r="H32" s="42"/>
       <c r="I32" s="43"/>
-      <c r="J32" s="103"/>
+      <c r="J32" s="100"/>
       <c r="K32" s="43"/>
-      <c r="L32" s="106"/>
+      <c r="L32" s="104"/>
       <c r="M32" s="42"/>
       <c r="N32" s="43"/>
-      <c r="O32" s="106"/>
+      <c r="O32" s="104"/>
       <c r="P32" s="42"/>
       <c r="Q32" s="43"/>
       <c r="R32" s="33"/>
@@ -10614,21 +10637,21 @@
       <c r="Z32" s="35"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A33" s="100"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="43"/>
-      <c r="C33" s="102"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="43"/>
-      <c r="E33" s="102"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="43"/>
-      <c r="G33" s="103"/>
+      <c r="G33" s="100"/>
       <c r="H33" s="42"/>
       <c r="I33" s="43"/>
-      <c r="J33" s="103"/>
+      <c r="J33" s="100"/>
       <c r="K33" s="43"/>
-      <c r="L33" s="106"/>
+      <c r="L33" s="104"/>
       <c r="M33" s="42"/>
       <c r="N33" s="43"/>
-      <c r="O33" s="106"/>
+      <c r="O33" s="104"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="43"/>
       <c r="R33" s="33"/>
@@ -10642,21 +10665,21 @@
       <c r="Z33" s="35"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A34" s="100"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="43"/>
-      <c r="C34" s="102"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="43"/>
-      <c r="E34" s="102"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="43"/>
-      <c r="G34" s="103"/>
+      <c r="G34" s="100"/>
       <c r="H34" s="42"/>
       <c r="I34" s="43"/>
-      <c r="J34" s="103"/>
+      <c r="J34" s="100"/>
       <c r="K34" s="43"/>
-      <c r="L34" s="106"/>
+      <c r="L34" s="104"/>
       <c r="M34" s="42"/>
       <c r="N34" s="43"/>
-      <c r="O34" s="106"/>
+      <c r="O34" s="104"/>
       <c r="P34" s="42"/>
       <c r="Q34" s="43"/>
       <c r="R34" s="33"/>
@@ -10670,21 +10693,21 @@
       <c r="Z34" s="35"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A35" s="100"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="43"/>
-      <c r="C35" s="102"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="43"/>
-      <c r="E35" s="102"/>
+      <c r="E35" s="109"/>
       <c r="F35" s="43"/>
-      <c r="G35" s="103"/>
+      <c r="G35" s="100"/>
       <c r="H35" s="42"/>
       <c r="I35" s="43"/>
-      <c r="J35" s="103"/>
+      <c r="J35" s="100"/>
       <c r="K35" s="43"/>
-      <c r="L35" s="106"/>
+      <c r="L35" s="104"/>
       <c r="M35" s="42"/>
       <c r="N35" s="43"/>
-      <c r="O35" s="106"/>
+      <c r="O35" s="104"/>
       <c r="P35" s="42"/>
       <c r="Q35" s="43"/>
       <c r="R35" s="33"/>
@@ -10698,23 +10721,23 @@
       <c r="Z35" s="35"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A36" s="110"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="61"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="70"/>
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
       <c r="T36" s="37"/>
@@ -11712,62 +11735,95 @@
     <row r="1005" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="A6:F6"/>
@@ -11792,97 +11848,64 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/ドキュメント/成果物_基本・詳細設計_塩谷.xlsx
+++ b/ドキュメント/成果物_基本・詳細設計_塩谷.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER122\Documents\project\TMS60\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C32BE0-BE9F-469C-A1E9-BF642953BFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B86956-1032-4B22-A168-808AA6BE870B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -838,10 +838,7 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>達成</t>
-    <rPh sb="0" eb="2">
-      <t>タッセイ</t>
-    </rPh>
+    <t>〇</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -8035,7 +8032,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -9562,8 +9559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
